--- a/apin_summary_Length.xlsx
+++ b/apin_summary_Length.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STD-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
@@ -487,21 +497,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.145256916996018</v>
+        <v>1.145256916996047</v>
       </c>
       <c r="D2" t="n">
-        <v>-2190.836956521678</v>
+        <v>-2190.836956521739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4577627546986688</v>
+        <v>0.0003927647054361254</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2719992595076667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.457762754698669</v>
+      </c>
+      <c r="H2" t="n">
         <v>89</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>114.5652173913043</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>138</v>
       </c>
     </row>
@@ -517,21 +533,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.643280632410974</v>
+        <v>1.643280632411067</v>
       </c>
       <c r="D3" t="n">
-        <v>-3247.836956521549</v>
+        <v>-3247.836956521739</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000676287799663226</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4125507454859606</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.430370163572374</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>26</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>60.08695652173913</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>95</v>
       </c>
     </row>
@@ -547,21 +569,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.457509881422905</v>
+        <v>1.457509881422925</v>
       </c>
       <c r="D4" t="n">
-        <v>-2812.402173913003</v>
+        <v>-2812.402173913043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3676393552765339</v>
+        <v>0.002162101861118226</v>
       </c>
       <c r="F4" t="n">
+        <v>0.4171317806144259</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.367639355276534</v>
+      </c>
+      <c r="H4" t="n">
         <v>93</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>121.5652173913043</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>150</v>
       </c>
     </row>
@@ -577,21 +605,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8300395256916567</v>
+        <v>0.8300395256916996</v>
       </c>
       <c r="D5" t="n">
-        <v>-1559.869565217304</v>
+        <v>-1559.869565217391</v>
       </c>
       <c r="E5" t="n">
+        <v>0.01144714344446986</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2995359041547414</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.2677546857069999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>84</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>111</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>134</v>
       </c>
     </row>
@@ -607,21 +641,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.9049251307956085</v>
+        <v>-0.9049251307955987</v>
       </c>
       <c r="D6" t="n">
-        <v>1855.696554212542</v>
+        <v>1855.696554212522</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0169501474752598</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3474072875117682</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.2533123754713278</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>34</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>56</v>
       </c>
     </row>
@@ -637,21 +677,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3735177865612618</v>
+        <v>0.3735177865612647</v>
       </c>
       <c r="D7" t="n">
-        <v>-663.1956521739069</v>
+        <v>-663.1956521739128</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0258668821622923</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.155772279024661</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.2149433172070185</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>80</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>88.69565217391305</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>101</v>
       </c>
     </row>
@@ -667,21 +713,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.05237154150204</v>
+        <v>-2.052371541501976</v>
       </c>
       <c r="D8" t="n">
-        <v>4193.554347826213</v>
+        <v>4193.554347826087</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1510947015813017</v>
+        <v>0.06679116064701478</v>
       </c>
       <c r="F8" t="n">
+        <v>1.061576610278119</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1510947015813018</v>
+      </c>
+      <c r="H8" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>62.1304347826087</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>130</v>
       </c>
     </row>
@@ -697,21 +749,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6432806324110236</v>
+        <v>0.6432806324110673</v>
       </c>
       <c r="D9" t="n">
-        <v>-1237.010869565129</v>
+        <v>-1237.010869565218</v>
       </c>
       <c r="E9" t="n">
+        <v>0.08477544654098844</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3555805539707898</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.1348355252273555</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>37</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>57.91304347826087</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>79</v>
       </c>
     </row>
@@ -727,21 +785,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.311264822134746</v>
+        <v>-2.311264822134387</v>
       </c>
       <c r="D10" t="n">
-        <v>4744.793478261588</v>
+        <v>4744.793478260869</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1336083247760252</v>
+        <v>0.08631439510947028</v>
       </c>
       <c r="F10" t="n">
+        <v>1.284341269646902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1336083247760251</v>
+      </c>
+      <c r="H10" t="n">
         <v>55</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>92.21739130434783</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>266</v>
       </c>
     </row>
@@ -757,21 +821,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.208280714414571</v>
+        <v>1.208280714414578</v>
       </c>
       <c r="D11" t="n">
-        <v>-2368.242558181478</v>
+        <v>-2368.242558181492</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1282497032023619</v>
+        <v>0.1017382573258711</v>
       </c>
       <c r="F11" t="n">
+        <v>0.7044022158152218</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.128249703202362</v>
+      </c>
+      <c r="H11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>64.13636363636364</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>111</v>
       </c>
     </row>
@@ -787,21 +857,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6950583269828069</v>
+        <v>-0.6950583269828243</v>
       </c>
       <c r="D12" t="n">
-        <v>1419.342106805757</v>
+        <v>1419.342106805792</v>
       </c>
       <c r="E12" t="n">
+        <v>0.1268281074268723</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4341977689992422</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.1246209279012165</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>20.85</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>43</v>
       </c>
     </row>
@@ -817,21 +893,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4575098814229075</v>
+        <v>0.4575098814229249</v>
       </c>
       <c r="D13" t="n">
-        <v>-886.6195652173559</v>
+        <v>-886.6195652173913</v>
       </c>
       <c r="E13" t="n">
+        <v>0.1216353735364254</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2836094620135352</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.1102566924792416</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>34.34782608695652</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>63</v>
       </c>
     </row>
@@ -847,21 +929,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8043478260868788</v>
+        <v>0.8043478260869567</v>
       </c>
       <c r="D14" t="n">
-        <v>-1561.630434782452</v>
+        <v>-1561.630434782609</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09911671010715328</v>
+        <v>0.1434205367501518</v>
       </c>
       <c r="F14" t="n">
+        <v>0.5291698252298097</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09911671010715324</v>
+      </c>
+      <c r="H14" t="n">
         <v>31</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>57.52173913043478</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>98</v>
       </c>
     </row>
@@ -877,21 +965,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.72035573122537</v>
+        <v>-0.7203557312252965</v>
       </c>
       <c r="D15" t="n">
-        <v>1520.902173913191</v>
+        <v>1520.902173913043</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08712673157987237</v>
+        <v>0.171515823913227</v>
       </c>
       <c r="F15" t="n">
+        <v>0.5088231967368383</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08712673157987233</v>
+      </c>
+      <c r="H15" t="n">
         <v>43</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>70.82608695652173</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>113</v>
       </c>
     </row>
@@ -907,21 +1001,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4278656126482002</v>
+        <v>0.4278656126482213</v>
       </c>
       <c r="D16" t="n">
-        <v>-825.5543478260441</v>
+        <v>-825.5543478260868</v>
       </c>
       <c r="E16" t="n">
+        <v>0.1767573581821884</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3060935332506616</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.08512352943313027</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>15</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>35.73913043478261</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>57</v>
       </c>
     </row>
@@ -937,21 +1037,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6847826086956613</v>
+        <v>0.684782608695652</v>
       </c>
       <c r="D17" t="n">
-        <v>-1307.641304347844</v>
+        <v>-1307.641304347826</v>
       </c>
       <c r="E17" t="n">
+        <v>0.1773421751651764</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4905827822243096</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.08490400921013735</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>29</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>70.82608695652173</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>102</v>
       </c>
     </row>
@@ -967,21 +1073,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2885375494071031</v>
+        <v>0.2885375494071146</v>
       </c>
       <c r="D18" t="n">
-        <v>-559.4347826086721</v>
+        <v>-559.4347826086956</v>
       </c>
       <c r="E18" t="n">
+        <v>0.1798785324464398</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2079749746554672</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.08396092642193159</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>21.39130434782609</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>36</v>
       </c>
     </row>
@@ -997,21 +1109,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3181818181818114</v>
+        <v>0.3181818181818183</v>
       </c>
       <c r="D19" t="n">
-        <v>-604.1956521738991</v>
+        <v>-604.1956521739132</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08049100100609878</v>
+        <v>0.1895552802787822</v>
       </c>
       <c r="F19" t="n">
+        <v>0.2346767362010301</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.08049100100609881</v>
+      </c>
+      <c r="H19" t="n">
         <v>16</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>36.30434782608695</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1027,21 +1145,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3409090909090696</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="D20" t="n">
-        <v>-664.3804347825653</v>
+        <v>-664.3804347826087</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07911539647764491</v>
+        <v>0.1935474913755351</v>
       </c>
       <c r="F20" t="n">
+        <v>0.2538055044895431</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07911539647764497</v>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>21.8695652173913</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1057,21 +1181,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.199604743083039</v>
+        <v>1.199604743083004</v>
       </c>
       <c r="D21" t="n">
-        <v>-2265.586956521808</v>
+        <v>-2265.586956521739</v>
       </c>
       <c r="E21" t="n">
+        <v>0.2237291341882298</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9568517435068571</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.06963403525084957</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>48</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>149.2173913043478</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>181</v>
       </c>
     </row>
@@ -1087,21 +1217,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3868843586505495</v>
+        <v>0.3868843586505507</v>
       </c>
       <c r="D22" t="n">
-        <v>-737.2879307234334</v>
+        <v>-737.2879307234358</v>
       </c>
       <c r="E22" t="n">
+        <v>0.2390567141688037</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3188034425330118</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.06858506300124875</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>18</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>41.54545454545455</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1117,21 +1253,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9278656126481613</v>
+        <v>0.9278656126482214</v>
       </c>
       <c r="D23" t="n">
-        <v>-1721.271739130313</v>
+        <v>-1721.271739130435</v>
       </c>
       <c r="E23" t="n">
+        <v>0.2291252570977672</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7490653351667594</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.06809030735898376</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>50</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>146.5217391304348</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>172</v>
       </c>
     </row>
@@ -1147,21 +1289,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5355731225296216</v>
+        <v>0.5355731225296443</v>
       </c>
       <c r="D24" t="n">
-        <v>-994.1521739129972</v>
+        <v>-994.1521739130435</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06435012862840758</v>
+        <v>0.2428238708944964</v>
       </c>
       <c r="F24" t="n">
+        <v>0.4456471137110299</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.06435012862840761</v>
+      </c>
+      <c r="H24" t="n">
         <v>49</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>83.95652173913044</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>114</v>
       </c>
     </row>
@@ -1177,21 +1325,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.3699260328341967</v>
+        <v>-0.3699260328342056</v>
       </c>
       <c r="D25" t="n">
-        <v>786.1038246436773</v>
+        <v>786.1038246436952</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06265116606384918</v>
+        <v>0.2612286515014474</v>
       </c>
       <c r="F25" t="n">
+        <v>0.3199528180656367</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06265116606384921</v>
+      </c>
+      <c r="H25" t="n">
         <v>22</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>41.40909090909091</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1207,21 +1361,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4733201581027786</v>
+        <v>0.4733201581027666</v>
       </c>
       <c r="D26" t="n">
-        <v>-822.4021739130669</v>
+        <v>-822.4021739130429</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06195428407254749</v>
+        <v>0.2520925425797312</v>
       </c>
       <c r="F26" t="n">
+        <v>0.4019034038142438</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06195428407254747</v>
+      </c>
+      <c r="H26" t="n">
         <v>104</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>130.3913043478261</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>154</v>
       </c>
     </row>
@@ -1237,21 +1397,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8764822134385835</v>
+        <v>0.8764822134387351</v>
       </c>
       <c r="D27" t="n">
-        <v>-1664.489130434476</v>
+        <v>-1664.489130434783</v>
       </c>
       <c r="E27" t="n">
+        <v>0.2788847414039616</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7885034371812473</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.05556868469645362</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>53</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>99.8695652173913</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>138</v>
       </c>
     </row>
@@ -1267,21 +1433,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6077075098813149</v>
+        <v>0.607707509881423</v>
       </c>
       <c r="D28" t="n">
-        <v>-1123.619565217174</v>
+        <v>-1123.619565217391</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04710097822091116</v>
+        <v>0.3198791304768493</v>
       </c>
       <c r="F28" t="n">
+        <v>0.59647663049331</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04710097822091115</v>
+      </c>
+      <c r="H28" t="n">
         <v>55</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>99.69565217391305</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>131</v>
       </c>
     </row>
@@ -1297,21 +1469,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.2984845751398127</v>
+        <v>-0.2984845751398162</v>
       </c>
       <c r="D29" t="n">
-        <v>637.7856756269102</v>
+        <v>637.7856756269172</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04449835371858225</v>
+        <v>0.3460214866101374</v>
       </c>
       <c r="F29" t="n">
+        <v>0.3092791498841306</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04449835371858224</v>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>36.90909090909091</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1327,21 +1505,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.1067193675889186</v>
+        <v>-0.1067193675889328</v>
       </c>
       <c r="D30" t="n">
-        <v>244.1304347825799</v>
+        <v>244.1304347826087</v>
       </c>
       <c r="E30" t="n">
+        <v>0.341337469314227</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1096131901498069</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.04318848307118101</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>22</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>29.30434782608696</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1357,21 +1541,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2517649398429206</v>
+        <v>0.2517649398428955</v>
       </c>
       <c r="D31" t="n">
-        <v>-482.3143084419319</v>
+        <v>-482.3143084418813</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04296191047865019</v>
+        <v>0.3673084402255902</v>
       </c>
       <c r="F31" t="n">
+        <v>0.2726096776379962</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0429619104786502</v>
+      </c>
+      <c r="H31" t="n">
         <v>14</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>24.42857142857143</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1387,21 +1577,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2895256916996301</v>
+        <v>0.2895256916996049</v>
       </c>
       <c r="D32" t="n">
-        <v>-456.4673913043988</v>
+        <v>-456.4673913043482</v>
       </c>
       <c r="E32" t="n">
+        <v>0.3581686577269481</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3081784369094069</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.04033393220249799</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>110</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>126.3478260869565</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>142</v>
       </c>
     </row>
@@ -1417,21 +1613,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4950592885375269</v>
+        <v>0.4950592885375494</v>
       </c>
       <c r="D33" t="n">
-        <v>-910.2065217390847</v>
+        <v>-910.2065217391305</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03675955422408068</v>
+        <v>0.3808188587855575</v>
       </c>
       <c r="F33" t="n">
+        <v>0.5530059485517214</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03675955422408066</v>
+      </c>
+      <c r="H33" t="n">
         <v>52</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>86.34782608695652</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>121</v>
       </c>
     </row>
@@ -1447,21 +1649,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.4447952372361676</v>
+        <v>-0.4447952372361539</v>
       </c>
       <c r="D34" t="n">
-        <v>930.5496121234269</v>
+        <v>930.5496121233994</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03652766389613494</v>
+        <v>0.3942088403133444</v>
       </c>
       <c r="F34" t="n">
+        <v>0.5108034314806751</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.03652766389613493</v>
+      </c>
+      <c r="H34" t="n">
         <v>12</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>35.13636363636363</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1477,21 +1685,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.233201581027468</v>
+        <v>1.233201581027668</v>
       </c>
       <c r="D35" t="n">
-        <v>-2415.913043477857</v>
+        <v>-2415.913043478261</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03055840570408508</v>
+        <v>0.4250001142130597</v>
       </c>
       <c r="F35" t="n">
+        <v>1.515723220481971</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03055840570408506</v>
+      </c>
+      <c r="H35" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>66.52173913043478</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1507,21 +1721,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3498105718924653</v>
+        <v>0.3498105718924773</v>
       </c>
       <c r="D36" t="n">
-        <v>-662.473209453341</v>
+        <v>-662.4732094533651</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02099361474819751</v>
+        <v>0.5200025418101154</v>
       </c>
       <c r="F36" t="n">
+        <v>0.5341547358273518</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0209936147481975</v>
+      </c>
+      <c r="H36" t="n">
         <v>24</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>41.72727272727273</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>109</v>
       </c>
     </row>
@@ -1537,21 +1757,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1758893280632621</v>
+        <v>-0.1758893280632411</v>
       </c>
       <c r="D37" t="n">
-        <v>375.2826086956943</v>
+        <v>375.2826086956521</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01745251839774381</v>
+        <v>0.5479205644765373</v>
       </c>
       <c r="F37" t="n">
+        <v>0.2879901033008563</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0174525183977438</v>
+      </c>
+      <c r="H37" t="n">
         <v>11</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>21.21739130434782</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1567,21 +1793,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2895256916995333</v>
+        <v>0.2895256916996048</v>
       </c>
       <c r="D38" t="n">
-        <v>-534.7282608694212</v>
+        <v>-534.7282608695654</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01702809897159797</v>
+        <v>0.5528708954340793</v>
       </c>
       <c r="F38" t="n">
+        <v>0.4800261860019007</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01702809897159796</v>
+      </c>
+      <c r="H38" t="n">
         <v>15</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>48.08695652173913</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1597,21 +1829,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1996047430830343</v>
+        <v>0.199604743083004</v>
       </c>
       <c r="D39" t="n">
-        <v>-356.6739130435392</v>
+        <v>-356.6739130434784</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01671226592834091</v>
+        <v>0.5566081988123248</v>
       </c>
       <c r="F39" t="n">
+        <v>0.3341056743251909</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0167122659283409</v>
+      </c>
+      <c r="H39" t="n">
         <v>30</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>45.1304347826087</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>74</v>
       </c>
     </row>
@@ -1627,21 +1865,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.2677865612647525</v>
+        <v>-0.267786561264822</v>
       </c>
       <c r="D40" t="n">
-        <v>584.2717391302942</v>
+        <v>584.2717391304346</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01402074522758964</v>
+        <v>0.5905067674774436</v>
       </c>
       <c r="F40" t="n">
+        <v>0.4900354184535604</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01402074522758963</v>
+      </c>
+      <c r="H40" t="n">
         <v>23</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>45.21739130434783</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1657,21 +1901,27 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.1729249011858205</v>
+        <v>-0.1729249011857706</v>
       </c>
       <c r="D41" t="n">
-        <v>372.3586956522738</v>
+        <v>372.3586956521737</v>
       </c>
       <c r="E41" t="n">
+        <v>0.599402436119131</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3242339510902297</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.01336397848148547</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>12</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>24.26086956521739</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1687,21 +1937,27 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2134387351778178</v>
+        <v>0.2134387351778656</v>
       </c>
       <c r="D42" t="n">
-        <v>-382.5217391303383</v>
+        <v>-382.5217391304348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01307283307480566</v>
+        <v>0.6034340562390912</v>
       </c>
       <c r="F42" t="n">
+        <v>0.4046888932997085</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01307283307480565</v>
+      </c>
+      <c r="H42" t="n">
         <v>27</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>47.1304347826087</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>69</v>
       </c>
     </row>
@@ -1717,21 +1973,27 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.1205533596838186</v>
+        <v>-0.1205533596837945</v>
       </c>
       <c r="D43" t="n">
-        <v>280.1521739130919</v>
+        <v>280.1521739130435</v>
       </c>
       <c r="E43" t="n">
+        <v>0.6316623457804029</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2478053131089665</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.01114425536248031</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>23</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>37.47826086956522</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1747,21 +2009,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.1422924901186147</v>
+        <v>-0.1422924901185771</v>
       </c>
       <c r="D44" t="n">
-        <v>322.4782608696408</v>
+        <v>322.4782608695652</v>
       </c>
       <c r="E44" t="n">
+        <v>0.668306734283354</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3274322187206056</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.008912790817624767</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>17</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>36.04347826086956</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1777,21 +2045,27 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2924901185770727</v>
+        <v>0.2924901185770751</v>
       </c>
       <c r="D45" t="n">
-        <v>-463.2608695652122</v>
+        <v>-463.2608695652175</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00800473033370341</v>
+        <v>0.6847671212037952</v>
       </c>
       <c r="F45" t="n">
+        <v>0.7105309480159614</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.008004730333703408</v>
+      </c>
+      <c r="H45" t="n">
         <v>39</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>125.5217391304348</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>148</v>
       </c>
     </row>
@@ -1807,21 +2081,27 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.1047430830039766</v>
+        <v>-0.1047430830039525</v>
       </c>
       <c r="D46" t="n">
-        <v>238.1086956522222</v>
+        <v>238.1086956521738</v>
       </c>
       <c r="E46" t="n">
-        <v>0.007973635057879109</v>
+        <v>0.6853494936644224</v>
       </c>
       <c r="F46" t="n">
+        <v>0.254946547599666</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.007973635057879104</v>
+      </c>
+      <c r="H46" t="n">
         <v>14</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>27.26086956521739</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>44</v>
       </c>
     </row>
@@ -1837,21 +2117,27 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.108695652173897</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="D47" t="n">
-        <v>-172.8478260869242</v>
+        <v>-172.8478260869565</v>
       </c>
       <c r="E47" t="n">
+        <v>0.6955451397716441</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2739557625500302</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.007440476190476189</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>35</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>45.95652173913044</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1867,21 +2153,27 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.5494071146244586</v>
+        <v>-0.549407114624506</v>
       </c>
       <c r="D48" t="n">
-        <v>1201.956521739035</v>
+        <v>1201.95652173913</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007112231798165897</v>
+        <v>0.7020313605337166</v>
       </c>
       <c r="F48" t="n">
+        <v>1.416549518151002</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0071122317981659</v>
+      </c>
+      <c r="H48" t="n">
         <v>34</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>96</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>246</v>
       </c>
     </row>
@@ -1897,21 +2189,27 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1983568075117587</v>
+        <v>0.1983568075117371</v>
       </c>
       <c r="D49" t="n">
-        <v>-382.3161189358808</v>
+        <v>-382.3161189358373</v>
       </c>
       <c r="E49" t="n">
+        <v>0.7521427103710641</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6173587354953139</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.006410707242049896</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>16.77777777777778</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1927,21 +2225,27 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.0569186361176283</v>
+        <v>-0.0569186361176259</v>
       </c>
       <c r="D50" t="n">
-        <v>153.2642071080691</v>
+        <v>153.2642071080643</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004542548458891032</v>
+        <v>0.7656935593000008</v>
       </c>
       <c r="F50" t="n">
+        <v>0.188408743651484</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004542548458891034</v>
+      </c>
+      <c r="H50" t="n">
         <v>29</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>38.68181818181818</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1957,21 +2261,27 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.02667984189722208</v>
+        <v>-0.02667984189723321</v>
       </c>
       <c r="D51" t="n">
-        <v>82.31521739128193</v>
+        <v>82.31521739130437</v>
       </c>
       <c r="E51" t="n">
+        <v>0.8060792813858081</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1073169842965174</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.00293449908221428</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>23</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>28.60869565217391</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1987,21 +2297,27 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.08399209486164862</v>
+        <v>0.08399209486166008</v>
       </c>
       <c r="D52" t="n">
-        <v>-138.0760869564986</v>
+        <v>-138.0760869565217</v>
       </c>
       <c r="E52" t="n">
-        <v>0.002350009237406553</v>
+        <v>0.8261431817742475</v>
       </c>
       <c r="F52" t="n">
+        <v>0.3776444291725151</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.002350009237406552</v>
+      </c>
+      <c r="H52" t="n">
         <v>15</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>31</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2017,21 +2333,27 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.1659751037344563</v>
+        <v>-0.16597510373444</v>
       </c>
       <c r="D53" t="n">
-        <v>427.7593360996183</v>
+        <v>427.7593360995854</v>
       </c>
       <c r="E53" t="n">
+        <v>0.8871831517183412</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.155090947701237</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.001031277237419022</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>33</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>93.63636363636364</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>133</v>
       </c>
     </row>
@@ -2047,21 +2369,27 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.05533596837953119</v>
+        <v>0.05533596837944655</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.000000000170152</v>
+        <v>-7.999999999999815</v>
       </c>
       <c r="E54" t="n">
+        <v>0.9599489060241049</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.088852785293159</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.000122971364611978</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>17</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>103.3913043478261</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>152</v>
       </c>
     </row>
@@ -2077,21 +2405,27 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.005928853754942668</v>
+        <v>-0.005928853754940697</v>
       </c>
       <c r="D55" t="n">
-        <v>49.19565217391698</v>
+        <v>49.19565217391302</v>
       </c>
       <c r="E55" t="n">
+        <v>0.9859504347077102</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3327021510596158</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.512183155623802e-05</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>21</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>37.26086956521739</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>61</v>
       </c>
     </row>
